--- a/simplepower/models/grid_model_data/OPF_grid2.xlsx
+++ b/simplepower/models/grid_model_data/OPF_grid2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6CE17F-116C-4A91-8293-C3AF7DF437C2}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470FEE91-0B0D-4269-8824-983B5E811581}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>s_base_mva</t>
+  </si>
+  <si>
+    <t>g_shunt_pu</t>
+  </si>
+  <si>
+    <t>b_shunt_pu</t>
   </si>
 </sst>
 </file>
@@ -235,10 +244,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,10 +797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF97191-B8C8-4B12-8921-F601069D1D4E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,55 +808,91 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F6A304-BB7B-47ED-B291-B0B7D490CDE8}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
